--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reuben\Documents\HTCS5607 Assesment\Github\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08981BA5-CBF7-4D89-8B14-52B2235D2A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD8C3F6-F1E1-44E1-ACC6-62C8FBA21687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$96</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$95</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
   <si>
     <t>WBS</t>
   </si>
@@ -1350,9 +1350,6 @@
   </si>
   <si>
     <t>Maintentance</t>
-  </si>
-  <si>
-    <t>Presentation</t>
   </si>
   <si>
     <t>Training</t>
@@ -2649,38 +2646,6 @@
     <xf numFmtId="0" fontId="42" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2713,6 +2678,38 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2761,7 +2758,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="99">
     <dxf>
       <fill>
         <patternFill>
@@ -2831,18 +2828,6 @@
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -4441,11 +4426,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN102"/>
+  <dimension ref="A1:BN101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:AE1"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4465,7 +4450,7 @@
   <sheetData>
     <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -4473,27 +4458,27 @@
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
       <c r="I1" s="80"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="113"/>
@@ -4536,11 +4521,11 @@
       <c r="B4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="120">
+      <c r="C4" s="134">
         <v>44459</v>
       </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="64"/>
       <c r="G4" s="67" t="s">
         <v>37</v>
@@ -4550,182 +4535,182 @@
       </c>
       <c r="I4" s="65"/>
       <c r="J4" s="27"/>
-      <c r="K4" s="117" t="str">
+      <c r="K4" s="126" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="117" t="str">
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="126" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="117" t="str">
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="126" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="117" t="str">
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="126" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="117" t="str">
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="127"/>
+      <c r="AJ4" s="127"/>
+      <c r="AK4" s="127"/>
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="126" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118"/>
-      <c r="AS4" s="119"/>
-      <c r="AT4" s="117" t="str">
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
+      <c r="AQ4" s="127"/>
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="126" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118"/>
-      <c r="AZ4" s="119"/>
-      <c r="BA4" s="117" t="str">
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="127"/>
+      <c r="AX4" s="127"/>
+      <c r="AY4" s="127"/>
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="126" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118"/>
-      <c r="BG4" s="119"/>
-      <c r="BH4" s="117" t="str">
+      <c r="BB4" s="127"/>
+      <c r="BC4" s="127"/>
+      <c r="BD4" s="127"/>
+      <c r="BE4" s="127"/>
+      <c r="BF4" s="127"/>
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="126" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="118"/>
-      <c r="BM4" s="118"/>
-      <c r="BN4" s="119"/>
+      <c r="BI4" s="127"/>
+      <c r="BJ4" s="127"/>
+      <c r="BK4" s="127"/>
+      <c r="BL4" s="127"/>
+      <c r="BM4" s="127"/>
+      <c r="BN4" s="128"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="63"/>
       <c r="B5" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="C5" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="66"/>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="27"/>
-      <c r="K5" s="121">
+      <c r="K5" s="129">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="121">
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="129">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="121">
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="129">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="123"/>
-      <c r="AF5" s="121">
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="130"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="129">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="122"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="122"/>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="121">
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="130"/>
+      <c r="AI5" s="130"/>
+      <c r="AJ5" s="130"/>
+      <c r="AK5" s="130"/>
+      <c r="AL5" s="131"/>
+      <c r="AM5" s="129">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="122"/>
-      <c r="AO5" s="122"/>
-      <c r="AP5" s="122"/>
-      <c r="AQ5" s="122"/>
-      <c r="AR5" s="122"/>
-      <c r="AS5" s="123"/>
-      <c r="AT5" s="121">
+      <c r="AN5" s="130"/>
+      <c r="AO5" s="130"/>
+      <c r="AP5" s="130"/>
+      <c r="AQ5" s="130"/>
+      <c r="AR5" s="130"/>
+      <c r="AS5" s="131"/>
+      <c r="AT5" s="129">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="122"/>
-      <c r="AV5" s="122"/>
-      <c r="AW5" s="122"/>
-      <c r="AX5" s="122"/>
-      <c r="AY5" s="122"/>
-      <c r="AZ5" s="123"/>
-      <c r="BA5" s="121">
+      <c r="AU5" s="130"/>
+      <c r="AV5" s="130"/>
+      <c r="AW5" s="130"/>
+      <c r="AX5" s="130"/>
+      <c r="AY5" s="130"/>
+      <c r="AZ5" s="131"/>
+      <c r="BA5" s="129">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="122"/>
-      <c r="BC5" s="122"/>
-      <c r="BD5" s="122"/>
-      <c r="BE5" s="122"/>
-      <c r="BF5" s="122"/>
-      <c r="BG5" s="123"/>
-      <c r="BH5" s="121">
+      <c r="BB5" s="130"/>
+      <c r="BC5" s="130"/>
+      <c r="BD5" s="130"/>
+      <c r="BE5" s="130"/>
+      <c r="BF5" s="130"/>
+      <c r="BG5" s="131"/>
+      <c r="BH5" s="129">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="122"/>
-      <c r="BJ5" s="122"/>
-      <c r="BK5" s="122"/>
-      <c r="BL5" s="122"/>
-      <c r="BM5" s="122"/>
-      <c r="BN5" s="123"/>
+      <c r="BI5" s="130"/>
+      <c r="BJ5" s="130"/>
+      <c r="BK5" s="130"/>
+      <c r="BL5" s="130"/>
+      <c r="BM5" s="130"/>
+      <c r="BN5" s="131"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
@@ -5217,90 +5202,90 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="135" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="str">
+    <row r="8" spans="1:66" s="125" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="116" t="str">
         <f t="shared" ref="A8:A86" si="4">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="128"/>
-      <c r="E8" s="129">
+      <c r="C8" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119">
         <v>44459</v>
       </c>
-      <c r="F8" s="129">
+      <c r="F8" s="119">
         <f>IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
         <v>44465</v>
       </c>
-      <c r="G8" s="130">
+      <c r="G8" s="120">
         <v>7</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132">
-        <f t="shared" ref="I8:I96" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+      <c r="H8" s="121"/>
+      <c r="I8" s="122">
+        <f t="shared" ref="I8:I95" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v>5</v>
       </c>
-      <c r="J8" s="133"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="134"/>
-      <c r="X8" s="134"/>
-      <c r="Y8" s="134"/>
-      <c r="Z8" s="134"/>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="134"/>
-      <c r="AD8" s="134"/>
-      <c r="AE8" s="134"/>
-      <c r="AF8" s="134"/>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="134"/>
-      <c r="AJ8" s="134"/>
-      <c r="AK8" s="134"/>
-      <c r="AL8" s="134"/>
-      <c r="AM8" s="134"/>
-      <c r="AN8" s="134"/>
-      <c r="AO8" s="134"/>
-      <c r="AP8" s="134"/>
-      <c r="AQ8" s="134"/>
-      <c r="AR8" s="134"/>
-      <c r="AS8" s="134"/>
-      <c r="AT8" s="134"/>
-      <c r="AU8" s="134"/>
-      <c r="AV8" s="134"/>
-      <c r="AW8" s="134"/>
-      <c r="AX8" s="134"/>
-      <c r="AY8" s="134"/>
-      <c r="AZ8" s="134"/>
-      <c r="BA8" s="134"/>
-      <c r="BB8" s="134"/>
-      <c r="BC8" s="134"/>
-      <c r="BD8" s="134"/>
-      <c r="BE8" s="134"/>
-      <c r="BF8" s="134"/>
-      <c r="BG8" s="134"/>
-      <c r="BH8" s="134"/>
-      <c r="BI8" s="134"/>
-      <c r="BJ8" s="134"/>
-      <c r="BK8" s="134"/>
-      <c r="BL8" s="134"/>
-      <c r="BM8" s="134"/>
-      <c r="BN8" s="134"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="124"/>
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="124"/>
+      <c r="AB8" s="124"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="124"/>
+      <c r="AE8" s="124"/>
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="124"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="124"/>
+      <c r="AN8" s="124"/>
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="124"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="124"/>
+      <c r="AT8" s="124"/>
+      <c r="AU8" s="124"/>
+      <c r="AV8" s="124"/>
+      <c r="AW8" s="124"/>
+      <c r="AX8" s="124"/>
+      <c r="AY8" s="124"/>
+      <c r="AZ8" s="124"/>
+      <c r="BA8" s="124"/>
+      <c r="BB8" s="124"/>
+      <c r="BC8" s="124"/>
+      <c r="BD8" s="124"/>
+      <c r="BE8" s="124"/>
+      <c r="BF8" s="124"/>
+      <c r="BG8" s="124"/>
+      <c r="BH8" s="124"/>
+      <c r="BI8" s="124"/>
+      <c r="BJ8" s="124"/>
+      <c r="BK8" s="124"/>
+      <c r="BL8" s="124"/>
+      <c r="BM8" s="124"/>
+      <c r="BN8" s="124"/>
     </row>
     <row r="9" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="str">
@@ -5308,7 +5293,7 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="47"/>
@@ -5391,7 +5376,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="47"/>
@@ -5474,7 +5459,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
@@ -5557,7 +5542,7 @@
         <v>1.4</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="47"/>
@@ -5723,7 +5708,7 @@
         <v>1.5.1</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="47"/>
@@ -5804,7 +5789,7 @@
         <v>1.5.2</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="47"/>
@@ -5881,90 +5866,90 @@
       <c r="BM15" s="62"/>
       <c r="BN15" s="62"/>
     </row>
-    <row r="16" spans="1:66" s="135" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="126" t="str">
+    <row r="16" spans="1:66" s="125" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="116" t="str">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B16" s="125" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="128"/>
-      <c r="E16" s="129">
+      <c r="B16" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119">
         <v>44466</v>
       </c>
-      <c r="F16" s="129">
+      <c r="F16" s="119">
         <f t="shared" ref="F16:F24" si="9">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
         <v>44472</v>
       </c>
-      <c r="G16" s="130">
+      <c r="G16" s="120">
         <v>7</v>
       </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132">
+      <c r="H16" s="121"/>
+      <c r="I16" s="122">
         <f t="shared" ref="I16" si="10">IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
         <v>5</v>
       </c>
-      <c r="J16" s="133"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="134"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="134"/>
-      <c r="X16" s="134"/>
-      <c r="Y16" s="134"/>
-      <c r="Z16" s="134"/>
-      <c r="AA16" s="134"/>
-      <c r="AB16" s="134"/>
-      <c r="AC16" s="134"/>
-      <c r="AD16" s="134"/>
-      <c r="AE16" s="134"/>
-      <c r="AF16" s="134"/>
-      <c r="AG16" s="134"/>
-      <c r="AH16" s="134"/>
-      <c r="AI16" s="134"/>
-      <c r="AJ16" s="134"/>
-      <c r="AK16" s="134"/>
-      <c r="AL16" s="134"/>
-      <c r="AM16" s="134"/>
-      <c r="AN16" s="134"/>
-      <c r="AO16" s="134"/>
-      <c r="AP16" s="134"/>
-      <c r="AQ16" s="134"/>
-      <c r="AR16" s="134"/>
-      <c r="AS16" s="134"/>
-      <c r="AT16" s="134"/>
-      <c r="AU16" s="134"/>
-      <c r="AV16" s="134"/>
-      <c r="AW16" s="134"/>
-      <c r="AX16" s="134"/>
-      <c r="AY16" s="134"/>
-      <c r="AZ16" s="134"/>
-      <c r="BA16" s="134"/>
-      <c r="BB16" s="134"/>
-      <c r="BC16" s="134"/>
-      <c r="BD16" s="134"/>
-      <c r="BE16" s="134"/>
-      <c r="BF16" s="134"/>
-      <c r="BG16" s="134"/>
-      <c r="BH16" s="134"/>
-      <c r="BI16" s="134"/>
-      <c r="BJ16" s="134"/>
-      <c r="BK16" s="134"/>
-      <c r="BL16" s="134"/>
-      <c r="BM16" s="134"/>
-      <c r="BN16" s="134"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="124"/>
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="124"/>
+      <c r="AC16" s="124"/>
+      <c r="AD16" s="124"/>
+      <c r="AE16" s="124"/>
+      <c r="AF16" s="124"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="124"/>
+      <c r="AJ16" s="124"/>
+      <c r="AK16" s="124"/>
+      <c r="AL16" s="124"/>
+      <c r="AM16" s="124"/>
+      <c r="AN16" s="124"/>
+      <c r="AO16" s="124"/>
+      <c r="AP16" s="124"/>
+      <c r="AQ16" s="124"/>
+      <c r="AR16" s="124"/>
+      <c r="AS16" s="124"/>
+      <c r="AT16" s="124"/>
+      <c r="AU16" s="124"/>
+      <c r="AV16" s="124"/>
+      <c r="AW16" s="124"/>
+      <c r="AX16" s="124"/>
+      <c r="AY16" s="124"/>
+      <c r="AZ16" s="124"/>
+      <c r="BA16" s="124"/>
+      <c r="BB16" s="124"/>
+      <c r="BC16" s="124"/>
+      <c r="BD16" s="124"/>
+      <c r="BE16" s="124"/>
+      <c r="BF16" s="124"/>
+      <c r="BG16" s="124"/>
+      <c r="BH16" s="124"/>
+      <c r="BI16" s="124"/>
+      <c r="BJ16" s="124"/>
+      <c r="BK16" s="124"/>
+      <c r="BL16" s="124"/>
+      <c r="BM16" s="124"/>
+      <c r="BN16" s="124"/>
     </row>
     <row r="17" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="str">
@@ -6055,7 +6040,7 @@
         <v>2.1.1</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="47"/>
@@ -6138,7 +6123,7 @@
         <v>2.1.2</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="47"/>
@@ -6221,7 +6206,7 @@
         <v>2.1.3</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="47"/>
@@ -6304,7 +6289,7 @@
         <v>2.1.4</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="47"/>
@@ -6387,7 +6372,7 @@
         <v>2.2</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="47"/>
@@ -6470,7 +6455,7 @@
         <v>2.2.1</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="47"/>
@@ -6553,7 +6538,7 @@
         <v>2.2.2</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="47"/>
@@ -6719,7 +6704,7 @@
         <v>2.3.1</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="47"/>
@@ -6802,7 +6787,7 @@
         <v>2.3.2</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="47"/>
@@ -6885,7 +6870,7 @@
         <v>2.3.3</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="47"/>
@@ -7045,90 +7030,90 @@
       <c r="BM29" s="62"/>
       <c r="BN29" s="62"/>
     </row>
-    <row r="30" spans="1:66" s="135" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="126" t="str">
+    <row r="30" spans="1:66" s="125" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="129">
+      <c r="C30" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="118"/>
+      <c r="E30" s="119">
         <v>44487</v>
       </c>
-      <c r="F30" s="129">
+      <c r="F30" s="119">
         <f>IF(ISBLANK(E30)," - ",IF(G30=0,E30,E30+G30-1))</f>
         <v>44500</v>
       </c>
-      <c r="G30" s="130">
+      <c r="G30" s="120">
         <v>14</v>
       </c>
-      <c r="H30" s="131"/>
-      <c r="I30" s="132">
+      <c r="H30" s="121"/>
+      <c r="I30" s="122">
         <f t="shared" ref="I30:I86" si="16">IF(OR(F30=0,E30=0)," - ",NETWORKDAYS(E30,F30))</f>
         <v>10</v>
       </c>
-      <c r="J30" s="133"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="134"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="134"/>
-      <c r="Y30" s="134"/>
-      <c r="Z30" s="134"/>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="134"/>
-      <c r="AF30" s="134"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="134"/>
-      <c r="AI30" s="134"/>
-      <c r="AJ30" s="134"/>
-      <c r="AK30" s="134"/>
-      <c r="AL30" s="134"/>
-      <c r="AM30" s="134"/>
-      <c r="AN30" s="134"/>
-      <c r="AO30" s="134"/>
-      <c r="AP30" s="134"/>
-      <c r="AQ30" s="134"/>
-      <c r="AR30" s="134"/>
-      <c r="AS30" s="134"/>
-      <c r="AT30" s="134"/>
-      <c r="AU30" s="134"/>
-      <c r="AV30" s="134"/>
-      <c r="AW30" s="134"/>
-      <c r="AX30" s="134"/>
-      <c r="AY30" s="134"/>
-      <c r="AZ30" s="134"/>
-      <c r="BA30" s="134"/>
-      <c r="BB30" s="134"/>
-      <c r="BC30" s="134"/>
-      <c r="BD30" s="134"/>
-      <c r="BE30" s="134"/>
-      <c r="BF30" s="134"/>
-      <c r="BG30" s="134"/>
-      <c r="BH30" s="134"/>
-      <c r="BI30" s="134"/>
-      <c r="BJ30" s="134"/>
-      <c r="BK30" s="134"/>
-      <c r="BL30" s="134"/>
-      <c r="BM30" s="134"/>
-      <c r="BN30" s="134"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="124"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="124"/>
+      <c r="Z30" s="124"/>
+      <c r="AA30" s="124"/>
+      <c r="AB30" s="124"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="124"/>
+      <c r="AE30" s="124"/>
+      <c r="AF30" s="124"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="124"/>
+      <c r="AI30" s="124"/>
+      <c r="AJ30" s="124"/>
+      <c r="AK30" s="124"/>
+      <c r="AL30" s="124"/>
+      <c r="AM30" s="124"/>
+      <c r="AN30" s="124"/>
+      <c r="AO30" s="124"/>
+      <c r="AP30" s="124"/>
+      <c r="AQ30" s="124"/>
+      <c r="AR30" s="124"/>
+      <c r="AS30" s="124"/>
+      <c r="AT30" s="124"/>
+      <c r="AU30" s="124"/>
+      <c r="AV30" s="124"/>
+      <c r="AW30" s="124"/>
+      <c r="AX30" s="124"/>
+      <c r="AY30" s="124"/>
+      <c r="AZ30" s="124"/>
+      <c r="BA30" s="124"/>
+      <c r="BB30" s="124"/>
+      <c r="BC30" s="124"/>
+      <c r="BD30" s="124"/>
+      <c r="BE30" s="124"/>
+      <c r="BF30" s="124"/>
+      <c r="BG30" s="124"/>
+      <c r="BH30" s="124"/>
+      <c r="BI30" s="124"/>
+      <c r="BJ30" s="124"/>
+      <c r="BK30" s="124"/>
+      <c r="BL30" s="124"/>
+      <c r="BM30" s="124"/>
+      <c r="BN30" s="124"/>
     </row>
     <row r="31" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="str">
@@ -7219,7 +7204,7 @@
         <v>3.1.1</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="47"/>
@@ -7302,7 +7287,7 @@
         <v>3.1.2</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="47"/>
@@ -7385,7 +7370,7 @@
         <v>3.2</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="46"/>
       <c r="D34" s="47"/>
@@ -7466,7 +7451,7 @@
         <v>3.2.1</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="47"/>
@@ -7546,7 +7531,7 @@
         <v>3.2.2</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="47"/>
@@ -7629,7 +7614,7 @@
         <v>3.3</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="46"/>
       <c r="D37" s="47"/>
@@ -7712,7 +7697,7 @@
         <v>3.3.1</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="47"/>
@@ -7795,7 +7780,7 @@
         <v>3.3.2</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="49"/>
       <c r="D39" s="47"/>
@@ -7878,7 +7863,7 @@
         <v>3.4</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="46"/>
       <c r="D40" s="47"/>
@@ -7961,7 +7946,7 @@
         <v>3.4.1</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="47"/>
@@ -8044,7 +8029,7 @@
         <v>3.4.2</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="47"/>
@@ -8127,7 +8112,7 @@
         <v>3.5</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="49"/>
       <c r="D43" s="47"/>
@@ -8210,7 +8195,7 @@
         <v>3.5.1</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="47"/>
@@ -8293,7 +8278,7 @@
         <v>3.5.2</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" s="49"/>
       <c r="D45" s="47"/>
@@ -8376,7 +8361,7 @@
         <v>3.6</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" s="49"/>
       <c r="D46" s="47"/>
@@ -8459,7 +8444,7 @@
         <v>3.6.1</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="46"/>
       <c r="D47" s="47"/>
@@ -8542,7 +8527,7 @@
         <v>3.6.2</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="49"/>
       <c r="D48" s="47"/>
@@ -8625,7 +8610,7 @@
         <v>3.7</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C49" s="49"/>
       <c r="D49" s="47"/>
@@ -8708,7 +8693,7 @@
         <v>3.7.1</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50" s="49"/>
       <c r="D50" s="47"/>
@@ -8791,7 +8776,7 @@
         <v>3.7.2</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" s="46"/>
       <c r="D51" s="47"/>
@@ -8874,7 +8859,7 @@
         <v>3.8</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="49"/>
       <c r="D52" s="47"/>
@@ -8957,7 +8942,7 @@
         <v>3.8.1</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" s="49"/>
       <c r="D53" s="47"/>
@@ -9040,7 +9025,7 @@
         <v>3.8.2</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="46"/>
       <c r="D54" s="47"/>
@@ -9123,7 +9108,7 @@
         <v>3.9</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="49"/>
       <c r="D55" s="47"/>
@@ -9206,7 +9191,7 @@
         <v>3.9.1</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" s="49"/>
       <c r="D56" s="47"/>
@@ -9289,7 +9274,7 @@
         <v>3.9.2</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="49"/>
       <c r="D57" s="47"/>
@@ -9449,90 +9434,90 @@
       <c r="BM58" s="62"/>
       <c r="BN58" s="62"/>
     </row>
-    <row r="59" spans="1:66" s="135" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="126" t="str">
+    <row r="59" spans="1:66" s="125" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="116" t="str">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="128"/>
-      <c r="E59" s="129">
+      <c r="C59" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="118"/>
+      <c r="E59" s="119">
         <v>44501</v>
       </c>
-      <c r="F59" s="129">
+      <c r="F59" s="119">
         <f>IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
         <v>44514</v>
       </c>
-      <c r="G59" s="130">
+      <c r="G59" s="120">
         <v>14</v>
       </c>
-      <c r="H59" s="131"/>
-      <c r="I59" s="132">
+      <c r="H59" s="121"/>
+      <c r="I59" s="122">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="J59" s="133"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
-      <c r="N59" s="134"/>
-      <c r="O59" s="134"/>
-      <c r="P59" s="134"/>
-      <c r="Q59" s="134"/>
-      <c r="R59" s="134"/>
-      <c r="S59" s="134"/>
-      <c r="T59" s="134"/>
-      <c r="U59" s="134"/>
-      <c r="V59" s="134"/>
-      <c r="W59" s="134"/>
-      <c r="X59" s="134"/>
-      <c r="Y59" s="134"/>
-      <c r="Z59" s="134"/>
-      <c r="AA59" s="134"/>
-      <c r="AB59" s="134"/>
-      <c r="AC59" s="134"/>
-      <c r="AD59" s="134"/>
-      <c r="AE59" s="134"/>
-      <c r="AF59" s="134"/>
-      <c r="AG59" s="134"/>
-      <c r="AH59" s="134"/>
-      <c r="AI59" s="134"/>
-      <c r="AJ59" s="134"/>
-      <c r="AK59" s="134"/>
-      <c r="AL59" s="134"/>
-      <c r="AM59" s="134"/>
-      <c r="AN59" s="134"/>
-      <c r="AO59" s="134"/>
-      <c r="AP59" s="134"/>
-      <c r="AQ59" s="134"/>
-      <c r="AR59" s="134"/>
-      <c r="AS59" s="134"/>
-      <c r="AT59" s="134"/>
-      <c r="AU59" s="134"/>
-      <c r="AV59" s="134"/>
-      <c r="AW59" s="134"/>
-      <c r="AX59" s="134"/>
-      <c r="AY59" s="134"/>
-      <c r="AZ59" s="134"/>
-      <c r="BA59" s="134"/>
-      <c r="BB59" s="134"/>
-      <c r="BC59" s="134"/>
-      <c r="BD59" s="134"/>
-      <c r="BE59" s="134"/>
-      <c r="BF59" s="134"/>
-      <c r="BG59" s="134"/>
-      <c r="BH59" s="134"/>
-      <c r="BI59" s="134"/>
-      <c r="BJ59" s="134"/>
-      <c r="BK59" s="134"/>
-      <c r="BL59" s="134"/>
-      <c r="BM59" s="134"/>
-      <c r="BN59" s="134"/>
+      <c r="J59" s="123"/>
+      <c r="K59" s="124"/>
+      <c r="L59" s="124"/>
+      <c r="M59" s="124"/>
+      <c r="N59" s="124"/>
+      <c r="O59" s="124"/>
+      <c r="P59" s="124"/>
+      <c r="Q59" s="124"/>
+      <c r="R59" s="124"/>
+      <c r="S59" s="124"/>
+      <c r="T59" s="124"/>
+      <c r="U59" s="124"/>
+      <c r="V59" s="124"/>
+      <c r="W59" s="124"/>
+      <c r="X59" s="124"/>
+      <c r="Y59" s="124"/>
+      <c r="Z59" s="124"/>
+      <c r="AA59" s="124"/>
+      <c r="AB59" s="124"/>
+      <c r="AC59" s="124"/>
+      <c r="AD59" s="124"/>
+      <c r="AE59" s="124"/>
+      <c r="AF59" s="124"/>
+      <c r="AG59" s="124"/>
+      <c r="AH59" s="124"/>
+      <c r="AI59" s="124"/>
+      <c r="AJ59" s="124"/>
+      <c r="AK59" s="124"/>
+      <c r="AL59" s="124"/>
+      <c r="AM59" s="124"/>
+      <c r="AN59" s="124"/>
+      <c r="AO59" s="124"/>
+      <c r="AP59" s="124"/>
+      <c r="AQ59" s="124"/>
+      <c r="AR59" s="124"/>
+      <c r="AS59" s="124"/>
+      <c r="AT59" s="124"/>
+      <c r="AU59" s="124"/>
+      <c r="AV59" s="124"/>
+      <c r="AW59" s="124"/>
+      <c r="AX59" s="124"/>
+      <c r="AY59" s="124"/>
+      <c r="AZ59" s="124"/>
+      <c r="BA59" s="124"/>
+      <c r="BB59" s="124"/>
+      <c r="BC59" s="124"/>
+      <c r="BD59" s="124"/>
+      <c r="BE59" s="124"/>
+      <c r="BF59" s="124"/>
+      <c r="BG59" s="124"/>
+      <c r="BH59" s="124"/>
+      <c r="BI59" s="124"/>
+      <c r="BJ59" s="124"/>
+      <c r="BK59" s="124"/>
+      <c r="BL59" s="124"/>
+      <c r="BM59" s="124"/>
+      <c r="BN59" s="124"/>
     </row>
     <row r="60" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="30" t="str">
@@ -9623,7 +9608,7 @@
         <v>4.2</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="46"/>
       <c r="D61" s="47"/>
@@ -9706,7 +9691,7 @@
         <v>4.2.1</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="49"/>
       <c r="D62" s="47"/>
@@ -9789,7 +9774,7 @@
         <v>4.2.2</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="49"/>
       <c r="D63" s="47"/>
@@ -9872,7 +9857,7 @@
         <v>4.3</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="46"/>
       <c r="D64" s="47"/>
@@ -9955,7 +9940,7 @@
         <v>4.3.1</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="49"/>
       <c r="D65" s="47"/>
@@ -10038,7 +10023,7 @@
         <v>4.3.2</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="49"/>
       <c r="D66" s="47"/>
@@ -10121,7 +10106,7 @@
         <v>4.4</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="46"/>
       <c r="D67" s="47"/>
@@ -10204,7 +10189,7 @@
         <v>4.4.1</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="49"/>
       <c r="D68" s="47"/>
@@ -10287,7 +10272,7 @@
         <v>4.4.2</v>
       </c>
       <c r="B69" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C69" s="49"/>
       <c r="D69" s="47"/>
@@ -10370,7 +10355,7 @@
         <v>4.5</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="49"/>
       <c r="D70" s="47"/>
@@ -10453,7 +10438,7 @@
         <v>4.5.1</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="49"/>
       <c r="D71" s="47"/>
@@ -10536,7 +10521,7 @@
         <v>4.5.2</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="49"/>
       <c r="D72" s="47"/>
@@ -10619,7 +10604,7 @@
         <v>4.6</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="49"/>
       <c r="D73" s="47"/>
@@ -10702,7 +10687,7 @@
         <v>4.6.1</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="49"/>
       <c r="D74" s="47"/>
@@ -10785,7 +10770,7 @@
         <v>4.6.2</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C75" s="49"/>
       <c r="D75" s="47"/>
@@ -10868,7 +10853,7 @@
         <v>4.7</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C76" s="49"/>
       <c r="D76" s="47"/>
@@ -10951,7 +10936,7 @@
         <v>4.7.1</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C77" s="49"/>
       <c r="D77" s="47"/>
@@ -11034,7 +11019,7 @@
         <v>4.7.2</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" s="49"/>
       <c r="D78" s="47"/>
@@ -11117,7 +11102,7 @@
         <v>4.8</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C79" s="49"/>
       <c r="D79" s="47"/>
@@ -11200,7 +11185,7 @@
         <v>4.8.1</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C80" s="49"/>
       <c r="D80" s="47"/>
@@ -11283,7 +11268,7 @@
         <v>4.8.2</v>
       </c>
       <c r="B81" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C81" s="49"/>
       <c r="D81" s="47"/>
@@ -11366,7 +11351,7 @@
         <v>4.9</v>
       </c>
       <c r="B82" s="114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C82" s="49"/>
       <c r="D82" s="47"/>
@@ -11449,7 +11434,7 @@
         <v>4.9.1</v>
       </c>
       <c r="B83" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C83" s="49"/>
       <c r="D83" s="47"/>
@@ -11532,7 +11517,7 @@
         <v>4.9.2</v>
       </c>
       <c r="B84" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" s="49"/>
       <c r="D84" s="47"/>
@@ -11692,90 +11677,90 @@
       <c r="BM85" s="62"/>
       <c r="BN85" s="62"/>
     </row>
-    <row r="86" spans="1:66" s="135" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A86" s="126" t="str">
+    <row r="86" spans="1:66" s="125" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="116" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B86" s="125" t="s">
+      <c r="B86" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="D86" s="128"/>
-      <c r="E86" s="129">
+      <c r="C86" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" s="118"/>
+      <c r="E86" s="119">
         <v>44515</v>
       </c>
-      <c r="F86" s="129">
+      <c r="F86" s="119">
         <f>IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
         <v>44518</v>
       </c>
-      <c r="G86" s="130">
+      <c r="G86" s="120">
         <v>4</v>
       </c>
-      <c r="H86" s="131"/>
-      <c r="I86" s="132">
+      <c r="H86" s="121"/>
+      <c r="I86" s="122">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="J86" s="133"/>
-      <c r="K86" s="134"/>
-      <c r="L86" s="134"/>
-      <c r="M86" s="134"/>
-      <c r="N86" s="134"/>
-      <c r="O86" s="134"/>
-      <c r="P86" s="134"/>
-      <c r="Q86" s="134"/>
-      <c r="R86" s="134"/>
-      <c r="S86" s="134"/>
-      <c r="T86" s="134"/>
-      <c r="U86" s="134"/>
-      <c r="V86" s="134"/>
-      <c r="W86" s="134"/>
-      <c r="X86" s="134"/>
-      <c r="Y86" s="134"/>
-      <c r="Z86" s="134"/>
-      <c r="AA86" s="134"/>
-      <c r="AB86" s="134"/>
-      <c r="AC86" s="134"/>
-      <c r="AD86" s="134"/>
-      <c r="AE86" s="134"/>
-      <c r="AF86" s="134"/>
-      <c r="AG86" s="134"/>
-      <c r="AH86" s="134"/>
-      <c r="AI86" s="134"/>
-      <c r="AJ86" s="134"/>
-      <c r="AK86" s="134"/>
-      <c r="AL86" s="134"/>
-      <c r="AM86" s="134"/>
-      <c r="AN86" s="134"/>
-      <c r="AO86" s="134"/>
-      <c r="AP86" s="134"/>
-      <c r="AQ86" s="134"/>
-      <c r="AR86" s="134"/>
-      <c r="AS86" s="134"/>
-      <c r="AT86" s="134"/>
-      <c r="AU86" s="134"/>
-      <c r="AV86" s="134"/>
-      <c r="AW86" s="134"/>
-      <c r="AX86" s="134"/>
-      <c r="AY86" s="134"/>
-      <c r="AZ86" s="134"/>
-      <c r="BA86" s="134"/>
-      <c r="BB86" s="134"/>
-      <c r="BC86" s="134"/>
-      <c r="BD86" s="134"/>
-      <c r="BE86" s="134"/>
-      <c r="BF86" s="134"/>
-      <c r="BG86" s="134"/>
-      <c r="BH86" s="134"/>
-      <c r="BI86" s="134"/>
-      <c r="BJ86" s="134"/>
-      <c r="BK86" s="134"/>
-      <c r="BL86" s="134"/>
-      <c r="BM86" s="134"/>
-      <c r="BN86" s="134"/>
+      <c r="J86" s="123"/>
+      <c r="K86" s="124"/>
+      <c r="L86" s="124"/>
+      <c r="M86" s="124"/>
+      <c r="N86" s="124"/>
+      <c r="O86" s="124"/>
+      <c r="P86" s="124"/>
+      <c r="Q86" s="124"/>
+      <c r="R86" s="124"/>
+      <c r="S86" s="124"/>
+      <c r="T86" s="124"/>
+      <c r="U86" s="124"/>
+      <c r="V86" s="124"/>
+      <c r="W86" s="124"/>
+      <c r="X86" s="124"/>
+      <c r="Y86" s="124"/>
+      <c r="Z86" s="124"/>
+      <c r="AA86" s="124"/>
+      <c r="AB86" s="124"/>
+      <c r="AC86" s="124"/>
+      <c r="AD86" s="124"/>
+      <c r="AE86" s="124"/>
+      <c r="AF86" s="124"/>
+      <c r="AG86" s="124"/>
+      <c r="AH86" s="124"/>
+      <c r="AI86" s="124"/>
+      <c r="AJ86" s="124"/>
+      <c r="AK86" s="124"/>
+      <c r="AL86" s="124"/>
+      <c r="AM86" s="124"/>
+      <c r="AN86" s="124"/>
+      <c r="AO86" s="124"/>
+      <c r="AP86" s="124"/>
+      <c r="AQ86" s="124"/>
+      <c r="AR86" s="124"/>
+      <c r="AS86" s="124"/>
+      <c r="AT86" s="124"/>
+      <c r="AU86" s="124"/>
+      <c r="AV86" s="124"/>
+      <c r="AW86" s="124"/>
+      <c r="AX86" s="124"/>
+      <c r="AY86" s="124"/>
+      <c r="AZ86" s="124"/>
+      <c r="BA86" s="124"/>
+      <c r="BB86" s="124"/>
+      <c r="BC86" s="124"/>
+      <c r="BD86" s="124"/>
+      <c r="BE86" s="124"/>
+      <c r="BF86" s="124"/>
+      <c r="BG86" s="124"/>
+      <c r="BH86" s="124"/>
+      <c r="BI86" s="124"/>
+      <c r="BJ86" s="124"/>
+      <c r="BK86" s="124"/>
+      <c r="BL86" s="124"/>
+      <c r="BM86" s="124"/>
+      <c r="BN86" s="124"/>
     </row>
     <row r="87" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="30" t="str">
@@ -11783,7 +11768,7 @@
         <v>5.1</v>
       </c>
       <c r="B87" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87" s="49"/>
       <c r="D87" s="47"/>
@@ -12109,90 +12094,90 @@
       <c r="BM90" s="62"/>
       <c r="BN90" s="62"/>
     </row>
-    <row r="91" spans="1:66" s="135" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="126" t="str">
+    <row r="91" spans="1:66" s="125" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="116" t="str">
         <f t="shared" ref="A91" si="57">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>6</v>
       </c>
-      <c r="B91" s="125" t="s">
+      <c r="B91" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="D91" s="128"/>
-      <c r="E91" s="129">
+      <c r="C91" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="118"/>
+      <c r="E91" s="119">
         <v>44515</v>
       </c>
-      <c r="F91" s="129">
+      <c r="F91" s="119">
         <f>IF(ISBLANK(E91)," - ",IF(G91=0,E91,E91+G91-1))</f>
         <v>44521</v>
       </c>
-      <c r="G91" s="130">
+      <c r="G91" s="120">
         <v>7</v>
       </c>
-      <c r="H91" s="131"/>
-      <c r="I91" s="132">
+      <c r="H91" s="121"/>
+      <c r="I91" s="122">
         <f t="shared" ref="I91" si="58">IF(OR(F91=0,E91=0)," - ",NETWORKDAYS(E91,F91))</f>
         <v>5</v>
       </c>
-      <c r="J91" s="133"/>
-      <c r="K91" s="134"/>
-      <c r="L91" s="134"/>
-      <c r="M91" s="134"/>
-      <c r="N91" s="134"/>
-      <c r="O91" s="134"/>
-      <c r="P91" s="134"/>
-      <c r="Q91" s="134"/>
-      <c r="R91" s="134"/>
-      <c r="S91" s="134"/>
-      <c r="T91" s="134"/>
-      <c r="U91" s="134"/>
-      <c r="V91" s="134"/>
-      <c r="W91" s="134"/>
-      <c r="X91" s="134"/>
-      <c r="Y91" s="134"/>
-      <c r="Z91" s="134"/>
-      <c r="AA91" s="134"/>
-      <c r="AB91" s="134"/>
-      <c r="AC91" s="134"/>
-      <c r="AD91" s="134"/>
-      <c r="AE91" s="134"/>
-      <c r="AF91" s="134"/>
-      <c r="AG91" s="134"/>
-      <c r="AH91" s="134"/>
-      <c r="AI91" s="134"/>
-      <c r="AJ91" s="134"/>
-      <c r="AK91" s="134"/>
-      <c r="AL91" s="134"/>
-      <c r="AM91" s="134"/>
-      <c r="AN91" s="134"/>
-      <c r="AO91" s="134"/>
-      <c r="AP91" s="134"/>
-      <c r="AQ91" s="134"/>
-      <c r="AR91" s="134"/>
-      <c r="AS91" s="134"/>
-      <c r="AT91" s="134"/>
-      <c r="AU91" s="134"/>
-      <c r="AV91" s="134"/>
-      <c r="AW91" s="134"/>
-      <c r="AX91" s="134"/>
-      <c r="AY91" s="134"/>
-      <c r="AZ91" s="134"/>
-      <c r="BA91" s="134"/>
-      <c r="BB91" s="134"/>
-      <c r="BC91" s="134"/>
-      <c r="BD91" s="134"/>
-      <c r="BE91" s="134"/>
-      <c r="BF91" s="134"/>
-      <c r="BG91" s="134"/>
-      <c r="BH91" s="134"/>
-      <c r="BI91" s="134"/>
-      <c r="BJ91" s="134"/>
-      <c r="BK91" s="134"/>
-      <c r="BL91" s="134"/>
-      <c r="BM91" s="134"/>
-      <c r="BN91" s="134"/>
+      <c r="J91" s="123"/>
+      <c r="K91" s="124"/>
+      <c r="L91" s="124"/>
+      <c r="M91" s="124"/>
+      <c r="N91" s="124"/>
+      <c r="O91" s="124"/>
+      <c r="P91" s="124"/>
+      <c r="Q91" s="124"/>
+      <c r="R91" s="124"/>
+      <c r="S91" s="124"/>
+      <c r="T91" s="124"/>
+      <c r="U91" s="124"/>
+      <c r="V91" s="124"/>
+      <c r="W91" s="124"/>
+      <c r="X91" s="124"/>
+      <c r="Y91" s="124"/>
+      <c r="Z91" s="124"/>
+      <c r="AA91" s="124"/>
+      <c r="AB91" s="124"/>
+      <c r="AC91" s="124"/>
+      <c r="AD91" s="124"/>
+      <c r="AE91" s="124"/>
+      <c r="AF91" s="124"/>
+      <c r="AG91" s="124"/>
+      <c r="AH91" s="124"/>
+      <c r="AI91" s="124"/>
+      <c r="AJ91" s="124"/>
+      <c r="AK91" s="124"/>
+      <c r="AL91" s="124"/>
+      <c r="AM91" s="124"/>
+      <c r="AN91" s="124"/>
+      <c r="AO91" s="124"/>
+      <c r="AP91" s="124"/>
+      <c r="AQ91" s="124"/>
+      <c r="AR91" s="124"/>
+      <c r="AS91" s="124"/>
+      <c r="AT91" s="124"/>
+      <c r="AU91" s="124"/>
+      <c r="AV91" s="124"/>
+      <c r="AW91" s="124"/>
+      <c r="AX91" s="124"/>
+      <c r="AY91" s="124"/>
+      <c r="AZ91" s="124"/>
+      <c r="BA91" s="124"/>
+      <c r="BB91" s="124"/>
+      <c r="BC91" s="124"/>
+      <c r="BD91" s="124"/>
+      <c r="BE91" s="124"/>
+      <c r="BF91" s="124"/>
+      <c r="BG91" s="124"/>
+      <c r="BH91" s="124"/>
+      <c r="BI91" s="124"/>
+      <c r="BJ91" s="124"/>
+      <c r="BK91" s="124"/>
+      <c r="BL91" s="124"/>
+      <c r="BM91" s="124"/>
+      <c r="BN91" s="124"/>
     </row>
     <row r="92" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="30" t="str">
@@ -12200,7 +12185,7 @@
         <v>6.1</v>
       </c>
       <c r="B92" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92" s="49"/>
       <c r="D92" s="47"/>
@@ -12208,7 +12193,7 @@
         <v>44515</v>
       </c>
       <c r="F92" s="58">
-        <f t="shared" ref="F92:F94" si="59">IF(ISBLANK(E92)," - ",IF(G92=0,E92,E92+G92-1))</f>
+        <f t="shared" ref="F92:F93" si="59">IF(ISBLANK(E92)," - ",IF(G92=0,E92,E92+G92-1))</f>
         <v>44521</v>
       </c>
       <c r="G92" s="31">
@@ -12283,24 +12268,24 @@
         <v>6.2</v>
       </c>
       <c r="B93" s="46" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C93" s="49"/>
       <c r="D93" s="47"/>
       <c r="E93" s="57">
-        <v>44515</v>
+        <v>44519</v>
       </c>
       <c r="F93" s="58">
         <f t="shared" si="59"/>
-        <v>44521</v>
+        <v>44519</v>
       </c>
       <c r="G93" s="31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H93" s="32"/>
       <c r="I93" s="48">
         <f>IF(OR(F93=0,E93=0)," - ",NETWORKDAYS(E93,F93))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J93" s="56"/>
       <c r="K93" s="62"/>
@@ -12361,31 +12346,19 @@
       <c r="BN93" s="62"/>
     </row>
     <row r="94" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="30" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.3</v>
-      </c>
-      <c r="B94" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="57">
-        <v>44519</v>
-      </c>
-      <c r="F94" s="58">
-        <f t="shared" si="59"/>
-        <v>44519</v>
-      </c>
-      <c r="G94" s="31">
-        <v>1</v>
-      </c>
-      <c r="H94" s="32"/>
-      <c r="I94" s="48">
-        <f>IF(OR(F94=0,E94=0)," - ",NETWORKDAYS(E94,F94))</f>
-        <v>1</v>
-      </c>
-      <c r="J94" s="56"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J94" s="54"/>
       <c r="K94" s="62"/>
       <c r="L94" s="62"/>
       <c r="M94" s="62"/>
@@ -12514,20 +12487,19 @@
       <c r="BM95" s="62"/>
       <c r="BN95" s="62"/>
     </row>
-    <row r="96" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="30"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J96" s="54"/>
+    <row r="96" spans="1:66" s="43" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="40"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="55"/>
       <c r="K96" s="62"/>
       <c r="L96" s="62"/>
       <c r="M96" s="62"/>
@@ -12585,18 +12557,18 @@
       <c r="BM96" s="62"/>
       <c r="BN96" s="62"/>
     </row>
-    <row r="97" spans="1:66" s="43" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
+    <row r="97" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
       <c r="J97" s="55"/>
       <c r="K97" s="62"/>
       <c r="L97" s="62"/>
@@ -12656,18 +12628,27 @@
       <c r="BN97" s="62"/>
     </row>
     <row r="98" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="45"/>
-      <c r="J98" s="55"/>
+      <c r="A98" s="78" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B98" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="46"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="58" t="str">
+        <f t="shared" ref="F98:F101" si="60">IF(ISBLANK(E98)," - ",IF(G98=0,E98,E98+G98-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G98" s="31"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="48" t="str">
+        <f>IF(OR(F98=0,E98=0)," - ",NETWORKDAYS(E98,F98))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J98" s="56"/>
       <c r="K98" s="62"/>
       <c r="L98" s="62"/>
       <c r="M98" s="62"/>
@@ -12726,24 +12707,24 @@
       <c r="BN98" s="62"/>
     </row>
     <row r="99" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="78" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B99" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="C99" s="46"/>
+      <c r="A99" s="30" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B99" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="49"/>
       <c r="D99" s="47"/>
       <c r="E99" s="57"/>
       <c r="F99" s="58" t="str">
-        <f t="shared" ref="F99:F102" si="60">IF(ISBLANK(E99)," - ",IF(G99=0,E99,E99+G99-1))</f>
+        <f t="shared" si="60"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G99" s="31"/>
       <c r="H99" s="32"/>
       <c r="I99" s="48" t="str">
-        <f>IF(OR(F99=0,E99=0)," - ",NETWORKDAYS(E99,F99))</f>
+        <f t="shared" ref="I99:I101" si="61">IF(OR(F99=0,E99=0)," - ",NETWORKDAYS(E99,F99))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J99" s="56"/>
@@ -12806,11 +12787,11 @@
     </row>
     <row r="100" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="30" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B100" s="49" t="s">
-        <v>26</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B100" s="50" t="s">
+        <v>27</v>
       </c>
       <c r="C100" s="49"/>
       <c r="D100" s="47"/>
@@ -12822,7 +12803,7 @@
       <c r="G100" s="31"/>
       <c r="H100" s="32"/>
       <c r="I100" s="48" t="str">
-        <f t="shared" ref="I100:I102" si="61">IF(OR(F100=0,E100=0)," - ",NETWORKDAYS(E100,F100))</f>
+        <f t="shared" si="61"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J100" s="56"/>
@@ -12885,11 +12866,11 @@
     </row>
     <row r="101" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="30" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
       </c>
       <c r="B101" s="50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C101" s="49"/>
       <c r="D101" s="47"/>
@@ -12962,88 +12943,18 @@
       <c r="BM101" s="62"/>
       <c r="BN101" s="62"/>
     </row>
-    <row r="102" spans="1:66" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="30" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B102" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="49"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="58" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G102" s="31"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="48" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J102" s="56"/>
-      <c r="K102" s="62"/>
-      <c r="L102" s="62"/>
-      <c r="M102" s="62"/>
-      <c r="N102" s="62"/>
-      <c r="O102" s="62"/>
-      <c r="P102" s="62"/>
-      <c r="Q102" s="62"/>
-      <c r="R102" s="62"/>
-      <c r="S102" s="62"/>
-      <c r="T102" s="62"/>
-      <c r="U102" s="62"/>
-      <c r="V102" s="62"/>
-      <c r="W102" s="62"/>
-      <c r="X102" s="62"/>
-      <c r="Y102" s="62"/>
-      <c r="Z102" s="62"/>
-      <c r="AA102" s="62"/>
-      <c r="AB102" s="62"/>
-      <c r="AC102" s="62"/>
-      <c r="AD102" s="62"/>
-      <c r="AE102" s="62"/>
-      <c r="AF102" s="62"/>
-      <c r="AG102" s="62"/>
-      <c r="AH102" s="62"/>
-      <c r="AI102" s="62"/>
-      <c r="AJ102" s="62"/>
-      <c r="AK102" s="62"/>
-      <c r="AL102" s="62"/>
-      <c r="AM102" s="62"/>
-      <c r="AN102" s="62"/>
-      <c r="AO102" s="62"/>
-      <c r="AP102" s="62"/>
-      <c r="AQ102" s="62"/>
-      <c r="AR102" s="62"/>
-      <c r="AS102" s="62"/>
-      <c r="AT102" s="62"/>
-      <c r="AU102" s="62"/>
-      <c r="AV102" s="62"/>
-      <c r="AW102" s="62"/>
-      <c r="AX102" s="62"/>
-      <c r="AY102" s="62"/>
-      <c r="AZ102" s="62"/>
-      <c r="BA102" s="62"/>
-      <c r="BB102" s="62"/>
-      <c r="BC102" s="62"/>
-      <c r="BD102" s="62"/>
-      <c r="BE102" s="62"/>
-      <c r="BF102" s="62"/>
-      <c r="BG102" s="62"/>
-      <c r="BH102" s="62"/>
-      <c r="BI102" s="62"/>
-      <c r="BJ102" s="62"/>
-      <c r="BK102" s="62"/>
-      <c r="BL102" s="62"/>
-      <c r="BM102" s="62"/>
-      <c r="BN102" s="62"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -13054,18 +12965,9 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H95:H102 H8">
+  <conditionalFormatting sqref="H94:H101 H8">
     <cfRule type="dataBar" priority="452">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13080,20 +12982,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="99" priority="495">
+    <cfRule type="expression" dxfId="98" priority="495">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN8 K16:BN33 K35:AI35 K34:AG34 AM34:BN35 K36:BN102">
-    <cfRule type="expression" dxfId="98" priority="498">
+  <conditionalFormatting sqref="K8:BN8 K16:BN33 K35:AI35 K34:AG34 AM34:BN35 K36:BN101">
+    <cfRule type="expression" dxfId="97" priority="498">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="499">
+    <cfRule type="expression" dxfId="96" priority="499">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN8 K95:BN102 K35:AI35 K34:AG34 K14:AG14 AM34:BN35 AM14:BN14 K85:BN85">
-    <cfRule type="expression" dxfId="96" priority="458">
+  <conditionalFormatting sqref="K6:BN8 K94:BN101 K35:AI35 K34:AG34 K14:AG14 AM34:BN35 AM14:BN14 K85:BN85">
+    <cfRule type="expression" dxfId="95" priority="458">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13112,7 +13014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="95" priority="448">
+    <cfRule type="expression" dxfId="94" priority="448">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13131,7 +13033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="94" priority="444">
+    <cfRule type="expression" dxfId="93" priority="444">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13150,7 +13052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="93" priority="440">
+    <cfRule type="expression" dxfId="92" priority="440">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13169,7 +13071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K86:BN87">
-    <cfRule type="expression" dxfId="92" priority="436">
+    <cfRule type="expression" dxfId="91" priority="436">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13188,15 +13090,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:BN9">
-    <cfRule type="expression" dxfId="91" priority="429">
+    <cfRule type="expression" dxfId="90" priority="429">
       <formula>AND($E9&lt;=K$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="430">
+    <cfRule type="expression" dxfId="89" priority="430">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=K$6,$F9&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:BN9">
-    <cfRule type="expression" dxfId="89" priority="428">
+    <cfRule type="expression" dxfId="88" priority="428">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13215,7 +13117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="88" priority="424">
+    <cfRule type="expression" dxfId="87" priority="424">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13234,7 +13136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K88:BN88">
-    <cfRule type="expression" dxfId="87" priority="384">
+    <cfRule type="expression" dxfId="86" priority="384">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13253,7 +13155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K89:BN89">
-    <cfRule type="expression" dxfId="86" priority="372">
+    <cfRule type="expression" dxfId="85" priority="372">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13272,7 +13174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="85" priority="368">
+    <cfRule type="expression" dxfId="84" priority="368">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13319,7 +13221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="84" priority="364">
+    <cfRule type="expression" dxfId="83" priority="364">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13338,12 +13240,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="83" priority="360">
+    <cfRule type="expression" dxfId="82" priority="360">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K90:BN90">
-    <cfRule type="expression" dxfId="82" priority="352">
+    <cfRule type="expression" dxfId="81" priority="352">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13362,7 +13264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="81" priority="348">
+    <cfRule type="expression" dxfId="80" priority="348">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13381,7 +13283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="80" priority="344">
+    <cfRule type="expression" dxfId="79" priority="344">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13400,7 +13302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="79" priority="340">
+    <cfRule type="expression" dxfId="78" priority="340">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13419,7 +13321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="78" priority="324">
+    <cfRule type="expression" dxfId="77" priority="324">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13438,7 +13340,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="77" priority="320">
+    <cfRule type="expression" dxfId="76" priority="320">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13457,7 +13359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="76" priority="316">
+    <cfRule type="expression" dxfId="75" priority="316">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13476,7 +13378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:BN24">
-    <cfRule type="expression" dxfId="75" priority="312">
+    <cfRule type="expression" dxfId="74" priority="312">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13495,7 +13397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="74" priority="308">
+    <cfRule type="expression" dxfId="73" priority="308">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13514,7 +13416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:BN27">
-    <cfRule type="expression" dxfId="73" priority="304">
+    <cfRule type="expression" dxfId="72" priority="304">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13533,7 +13435,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="72" priority="300">
+    <cfRule type="expression" dxfId="71" priority="300">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13552,7 +13454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="71" priority="292">
+    <cfRule type="expression" dxfId="70" priority="292">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13571,7 +13473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="70" priority="288">
+    <cfRule type="expression" dxfId="69" priority="288">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13604,7 +13506,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="69" priority="282">
+    <cfRule type="expression" dxfId="68" priority="282">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13623,7 +13525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="68" priority="280">
+    <cfRule type="expression" dxfId="67" priority="280">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13642,7 +13544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="67" priority="278">
+    <cfRule type="expression" dxfId="66" priority="278">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13661,7 +13563,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="66" priority="276">
+    <cfRule type="expression" dxfId="65" priority="276">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13680,7 +13582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="65" priority="274">
+    <cfRule type="expression" dxfId="64" priority="274">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13699,7 +13601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="64" priority="272">
+    <cfRule type="expression" dxfId="63" priority="272">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13718,7 +13620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="63" priority="270">
+    <cfRule type="expression" dxfId="62" priority="270">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13765,7 +13667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="62" priority="262">
+    <cfRule type="expression" dxfId="61" priority="262">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13784,12 +13686,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="61" priority="202">
+    <cfRule type="expression" dxfId="60" priority="202">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="60" priority="198">
+    <cfRule type="expression" dxfId="59" priority="198">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13836,12 +13738,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="59" priority="194">
+    <cfRule type="expression" dxfId="58" priority="194">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="58" priority="190">
+    <cfRule type="expression" dxfId="57" priority="190">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13874,12 +13776,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="57" priority="186">
+    <cfRule type="expression" dxfId="56" priority="186">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="56" priority="182">
+    <cfRule type="expression" dxfId="55" priority="182">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13912,12 +13814,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="55" priority="178">
+    <cfRule type="expression" dxfId="54" priority="178">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="54" priority="174">
+    <cfRule type="expression" dxfId="53" priority="174">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13950,12 +13852,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="53" priority="170">
+    <cfRule type="expression" dxfId="52" priority="170">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="52" priority="166">
+    <cfRule type="expression" dxfId="51" priority="166">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13988,12 +13890,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="51" priority="162">
+    <cfRule type="expression" dxfId="50" priority="162">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="50" priority="158">
+    <cfRule type="expression" dxfId="49" priority="158">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14012,12 +13914,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="49" priority="154">
+    <cfRule type="expression" dxfId="48" priority="154">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="48" priority="150">
+    <cfRule type="expression" dxfId="47" priority="150">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14036,7 +13938,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="47" priority="136">
+    <cfRule type="expression" dxfId="46" priority="136">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14055,7 +13957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="46" priority="134">
+    <cfRule type="expression" dxfId="45" priority="134">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14074,7 +13976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="45" priority="132">
+    <cfRule type="expression" dxfId="44" priority="132">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14093,7 +13995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="44" priority="130">
+    <cfRule type="expression" dxfId="43" priority="130">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14112,7 +14014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="43" priority="128">
+    <cfRule type="expression" dxfId="42" priority="128">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14131,7 +14033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="42" priority="126">
+    <cfRule type="expression" dxfId="41" priority="126">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14150,7 +14052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:BN79">
-    <cfRule type="expression" dxfId="41" priority="124">
+    <cfRule type="expression" dxfId="40" priority="124">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14169,7 +14071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K82:BN82">
-    <cfRule type="expression" dxfId="40" priority="122">
+    <cfRule type="expression" dxfId="39" priority="122">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14216,12 +14118,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="39" priority="120">
+    <cfRule type="expression" dxfId="38" priority="120">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="38" priority="118">
+    <cfRule type="expression" dxfId="37" priority="118">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14240,12 +14142,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="37" priority="80">
+    <cfRule type="expression" dxfId="36" priority="80">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="36" priority="78">
+    <cfRule type="expression" dxfId="35" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14292,12 +14194,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K77:BN77">
-    <cfRule type="expression" dxfId="35" priority="62">
+    <cfRule type="expression" dxfId="34" priority="62">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="34" priority="68">
+    <cfRule type="expression" dxfId="33" priority="68">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14316,7 +14218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="33" priority="72">
+    <cfRule type="expression" dxfId="32" priority="72">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14349,17 +14251,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="32" priority="74">
+    <cfRule type="expression" dxfId="31" priority="74">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="31" priority="66">
+    <cfRule type="expression" dxfId="30" priority="66">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="30" priority="84">
+    <cfRule type="expression" dxfId="29" priority="84">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14378,7 +14280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="29" priority="86">
+    <cfRule type="expression" dxfId="28" priority="86">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14425,7 +14327,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:BN78">
-    <cfRule type="expression" dxfId="28" priority="60">
+    <cfRule type="expression" dxfId="27" priority="60">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14458,12 +14360,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80:BN80">
-    <cfRule type="expression" dxfId="27" priority="56">
+    <cfRule type="expression" dxfId="26" priority="56">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K81:BN81">
-    <cfRule type="expression" dxfId="26" priority="54">
+    <cfRule type="expression" dxfId="25" priority="54">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14496,16 +14398,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:BN83">
-    <cfRule type="expression" dxfId="25" priority="50">
+    <cfRule type="expression" dxfId="24" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K84:BN84">
-    <cfRule type="expression" dxfId="24" priority="48">
+    <cfRule type="expression" dxfId="23" priority="48">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 H31">
+  <conditionalFormatting sqref="H31 H13">
     <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14520,7 +14422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31 K12:BN12">
-    <cfRule type="expression" dxfId="23" priority="44">
+    <cfRule type="expression" dxfId="22" priority="44">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14539,12 +14441,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="22" priority="42">
+    <cfRule type="expression" dxfId="21" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="21" priority="40">
+    <cfRule type="expression" dxfId="20" priority="40">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14563,7 +14465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="20" priority="36">
+    <cfRule type="expression" dxfId="19" priority="36">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14596,17 +14498,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="19" priority="30">
+    <cfRule type="expression" dxfId="18" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="18" priority="28">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34:AJ34 AH13:AJ14">
-    <cfRule type="expression" dxfId="17" priority="507">
+    <cfRule type="expression" dxfId="16" priority="507">
       <formula>AJ$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14625,7 +14527,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="15" priority="24">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14643,7 +14545,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
+  <conditionalFormatting sqref="H93">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14658,7 +14560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91:BN91">
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14677,30 +14579,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K92:BN92">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7D97EDC6-816F-443E-81D9-C519B9730C0D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K93:BN93">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K94:BN94">
     <cfRule type="expression" dxfId="12" priority="12">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -14790,7 +14673,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A95:B96 A98:B98 B97 E95:H98 G99 G100:G101 G102" unlockedFormula="1"/>
+    <ignoredError sqref="A94:B95 A97:B97 B96 E94:H97 G98 G99:G100 G101" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -14838,7 +14721,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H95:H102 H8</xm:sqref>
+          <xm:sqref>H94:H101 H8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6E196CE3-973F-40EB-8D05-B624EB2C9C61}">
@@ -15978,7 +15861,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H13 H31</xm:sqref>
+          <xm:sqref>H31 H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8B1CB2E8-2D8E-4FA7-AF06-8887F6E078B5}">
@@ -16083,7 +15966,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H94</xm:sqref>
+          <xm:sqref>H93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0A6B444B-90C8-4FB8-AE74-6B976233461F}">
@@ -16099,21 +15982,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H92</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7D97EDC6-816F-443E-81D9-C519B9730C0D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{11B6E08F-F0B6-4751-96CD-A8581CE3D256}">
@@ -16215,10 +16083,10 @@
     </row>
     <row r="12" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="124"/>
+      <c r="B13" s="135"/>
     </row>
     <row r="14" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" s="82" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -16280,10 +16148,10 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="124" t="s">
+      <c r="A24" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="124"/>
+      <c r="B24" s="135"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A25" s="92"/>
@@ -16356,10 +16224,10 @@
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="124" t="s">
+      <c r="A38" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="124"/>
+      <c r="B38" s="135"/>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="89" t="s">
@@ -16396,10 +16264,10 @@
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="124" t="s">
+      <c r="A49" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="124"/>
+      <c r="B49" s="135"/>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="89" t="s">
@@ -16497,10 +16365,10 @@
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="124" t="s">
+      <c r="A65" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="124"/>
+      <c r="B65" s="135"/>
     </row>
     <row r="66" spans="1:2" s="14" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="89" t="s">
@@ -16511,10 +16379,10 @@
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="124" t="s">
+      <c r="A68" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="124"/>
+      <c r="B68" s="135"/>
     </row>
     <row r="69" spans="1:2" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="104" t="s">
